--- a/app_specific_routes/DHS/dhs_template.xlsx
+++ b/app_specific_routes/DHS/dhs_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APIs\Postgis-Node-API\app_specific_routes\DHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\NYC DHS Excel xfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27398D4A-8398-4F0D-88C2-4D64FD7A0C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map and Notes" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Facilities within 1/2 Mile of 42-19 64 Street</t>
   </si>
@@ -68,18 +69,6 @@
     <t>IMPORTANT:</t>
   </si>
   <si>
-    <t>Note about data sources, vintage, and how buffer was calculated</t>
-  </si>
-  <si>
-    <t>Link to online app</t>
-  </si>
-  <si>
-    <t>NYC Dept of Homeless Services</t>
-  </si>
-  <si>
-    <t>The following facilities are displayed verbatim from the "Facilities Database" from NYC Dept of City Planning, Release June 2022.</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -95,25 +84,40 @@
     <t>CAPACITY</t>
   </si>
   <si>
-    <t>The following entries (key values beginning with "S") are NYC Dept of Homeless Services shelters, based on DHS's CARES database.</t>
-  </si>
-  <si>
     <t>If duplicates are listed, look at the (in the "Map and Notes" worksheet) to see if they are in different locations.</t>
   </si>
   <si>
     <t>Sources:</t>
   </si>
   <si>
-    <t>DHS shelters (key values beginning with "S") are listed first (from DHS's CARES database).</t>
-  </si>
-  <si>
-    <t>Other facilities (listed after the "S" entries) are displayed verbatim from the "Facilities Database" from NYC Dept of City Planning, Release June 2022.</t>
+    <t>Map and list of shelters and facilities generated from NYC Department of Homeless Services</t>
+  </si>
+  <si>
+    <t>Shelter Mapping Application.</t>
+  </si>
+  <si>
+    <t>DHS shelter data from DHS CARES database current as of Oct 2024.</t>
+  </si>
+  <si>
+    <t>Other facilities from NYC Department of City Planning Facilities Database, Release 24v1 January 2024.</t>
+  </si>
+  <si>
+    <t>The following facilities are displayed verbatim from the "Facilities Database" from NYC Dept of City Planning, Release 24v1 January 2024.</t>
+  </si>
+  <si>
+    <t>The following entries (key values beginning with "S") are NYC Dept of Homeless Services shelters, based on DHS's CARES database (Oct. 2024).</t>
+  </si>
+  <si>
+    <t>Other facilities (listed after the "S" entries) are displayed verbatim from the "Facilities Database" from NYC Dept of City Planning, Release 24v1 January 2024.</t>
+  </si>
+  <si>
+    <t>DHS shelters (key values beginning with "S") are listed first (from DHS's CARES database), as of Oct. 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,12 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,8 +248,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,28 +813,28 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
@@ -862,17 +865,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -886,11 +894,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,34 +917,34 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,14 +954,14 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
